--- a/接口文档/店铺api/商品分类接口.xlsx
+++ b/接口文档/店铺api/商品分类接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -239,6 +239,35 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>页数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"id":1},{"id":2},{"id":3}]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除商品分类接口</t>
+  </si>
+  <si>
     <r>
       <t>http://192.168.1.</t>
     </r>
@@ -251,103 +280,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/api/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>seller_edit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v1/productTypeAdd</t>
+      <t>117/api/product_type_edit/v1/productTypeAdd</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>http://192.168.1.117/api/seller_edit/v1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>productTypeUpdate</t>
-    </r>
+    <t>http://192.168.1.117/api/product_type_edit/v1/productTypeUpdate</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.117/api/seller_edit/v1/productTypeAll</t>
+    <t>http://192.168.1.117/api/product_type_edit/v1/productTypeAll</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>页数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"id":1},{"id":2},{"id":3}]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量删除商品分类接口</t>
   </si>
 </sst>
 </file>
@@ -366,6 +309,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -373,6 +317,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -380,12 +325,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -707,9 +654,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -719,86 +726,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1112,186 +1059,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1306,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1328,7 +1275,7 @@
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1336,7 +1283,7 @@
       <c r="A3" s="28">
         <v>3</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="42" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1344,15 +1291,15 @@
       <c r="A4" s="28">
         <v>4</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>59</v>
+      <c r="B4" s="42" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="28">
         <v>5</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1373,7 +1320,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E21"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1390,37 +1337,37 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1437,7 +1384,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="38"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1447,13 +1394,13 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1462,13 +1409,13 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1477,13 +1424,13 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1492,31 +1439,31 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1525,13 +1472,13 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1540,37 +1487,37 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1579,13 +1526,13 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1594,13 +1541,13 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1609,12 +1556,12 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1624,13 +1571,13 @@
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1639,13 +1586,13 @@
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="39"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1654,12 +1601,12 @@
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1668,7 +1615,7 @@
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1796,7 +1743,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E14"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1813,37 +1760,37 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1860,8 +1807,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1870,7 +1817,7 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1885,13 +1832,13 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1900,13 +1847,13 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1915,13 +1862,13 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1930,7 +1877,7 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1938,23 +1885,23 @@
       <c r="A10" s="7"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="44"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1963,13 +1910,13 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1978,34 +1925,34 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2014,12 +1961,12 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="16.5">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2028,12 +1975,12 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16.5">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2042,7 +1989,7 @@
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2056,12 +2003,12 @@
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="16.5">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2070,12 +2017,12 @@
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="16.5">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2084,12 +2031,12 @@
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="16.5">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2098,7 +2045,7 @@
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2212,7 +2159,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2229,37 +2176,37 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2276,64 +2223,64 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="55" customFormat="1" ht="21" customHeight="1">
+    <row r="6" spans="1:5" s="39" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="57"/>
-    </row>
-    <row r="7" spans="1:5" s="55" customFormat="1" ht="21" customHeight="1">
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:5" s="39" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="54"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="55" customFormat="1" ht="21" customHeight="1">
+    <row r="8" spans="1:5" s="39" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="54"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
+      <c r="B9" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" s="19" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2342,13 +2289,13 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="39"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2357,7 +2304,7 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="29" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2509,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2527,34 +2474,34 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
@@ -2576,7 +2523,7 @@
     <row r="5" spans="1:5" ht="21" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -2584,14 +2531,14 @@
       <c r="D5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>54</v>
+      <c r="E5" s="40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>13</v>
@@ -2599,8 +2546,8 @@
       <c r="D6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>55</v>
+      <c r="E6" s="41" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1">
@@ -2611,19 +2558,19 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2632,13 +2579,13 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2647,41 +2594,41 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="38"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2690,12 +2637,12 @@
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2704,12 +2651,12 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2718,7 +2665,7 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2732,12 +2679,12 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2746,12 +2693,12 @@
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2760,12 +2707,12 @@
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="25.5" customHeight="1">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2774,7 +2721,7 @@
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="32" t="s">
         <v>33</v>
       </c>
     </row>

--- a/接口文档/店铺api/商品分类接口.xlsx
+++ b/接口文档/店铺api/商品分类接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -290,6 +290,10 @@
   </si>
   <si>
     <t>http://192.168.1.117/api/product_type_edit/v1/productTypeAll</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/product_type_edit/v1/productTypeDel</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -726,14 +730,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,23 +1352,23 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="47" t="s">
@@ -1771,23 +1775,23 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="47" t="s">
@@ -2158,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2187,12 +2191,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -2201,9 +2205,9 @@
       <c r="B3" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="47" t="s">
@@ -2456,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2485,23 +2489,23 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">

--- a/接口文档/店铺api/商品分类接口.xlsx
+++ b/接口文档/店铺api/商品分类接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="编辑商品分类接口" sheetId="4" r:id="rId4"/>
     <sheet name="批量删除商品分类接口" sheetId="5" r:id="rId5"/>
     <sheet name="商品分类列表接口" sheetId="7" r:id="rId6"/>
+    <sheet name="商品分类排序接口" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="68">
   <si>
     <t>序号</t>
   </si>
@@ -295,6 +296,33 @@
   <si>
     <t>http://192.168.1.117/api/product_type_edit/v1/productTypeDel</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/product_type_edit/v1/productTypeUpdateSort</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类排序接口</t>
   </si>
 </sst>
 </file>
@@ -574,7 +602,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +727,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1063,186 +1103,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1255,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1307,6 +1347,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="28">
+        <v>6</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -1314,6 +1362,7 @@
     <hyperlink ref="B3" location="编辑商品分类接口!A1" display="编辑商品分类接口"/>
     <hyperlink ref="B4" location="批量删除商品分类接口!A1" display="批量删除商品分类接口"/>
     <hyperlink ref="B5" location="商品分类列表接口!A1" display="商品分类列表接口"/>
+    <hyperlink ref="B6" location="商品分类排序接口!A1" display="商品分类排序接口"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
@@ -1341,37 +1390,37 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1388,7 +1437,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1452,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="29" t="s">
         <v>30</v>
       </c>
@@ -1455,18 +1504,18 @@
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="34" t="s">
         <v>41</v>
       </c>
@@ -1481,7 +1530,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="34" t="s">
         <v>43</v>
       </c>
@@ -1496,7 +1545,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A13" s="48"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="35" t="s">
         <v>45</v>
       </c>
@@ -1511,16 +1560,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="29" t="s">
         <v>35</v>
       </c>
@@ -1535,7 +1584,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
@@ -1550,7 +1599,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="29" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1614,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1629,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1644,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="49"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="30" t="s">
         <v>32</v>
       </c>
@@ -1764,37 +1813,37 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1811,7 +1860,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
@@ -1893,18 +1942,18 @@
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
@@ -1919,7 +1968,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5">
-      <c r="A13" s="49"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="34" t="s">
         <v>43</v>
       </c>
@@ -1948,12 +1997,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="B16" s="29" t="s">
@@ -2162,7 +2211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2180,37 +2229,37 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2227,7 +2276,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
@@ -2264,26 +2313,26 @@
     </row>
     <row r="9" spans="1:5" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="10" spans="1:5" s="19" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="34" t="s">
         <v>41</v>
       </c>
@@ -2298,7 +2347,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="49"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="34" t="s">
         <v>43</v>
       </c>
@@ -2478,34 +2527,34 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
@@ -2562,18 +2611,18 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="34" t="s">
         <v>41</v>
       </c>
@@ -2588,7 +2637,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="34" t="s">
         <v>43</v>
       </c>
@@ -2603,7 +2652,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="35" t="s">
         <v>45</v>
       </c>
@@ -2618,20 +2667,20 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="48"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="49"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="29" t="s">
         <v>35</v>
       </c>
@@ -2968,4 +3017,518 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1">
+      <c r="A5" s="44"/>
+      <c r="B5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1">
+      <c r="A7" s="44"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="52"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="52"/>
+      <c r="B13" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="53"/>
+      <c r="B14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="25.5" customHeight="1">
+      <c r="B20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="12"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" ht="21" customHeight="1">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="12"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/接口文档/店铺api/商品分类接口.xlsx
+++ b/接口文档/店铺api/商品分类接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="21495" windowHeight="10320" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="批量删除商品分类接口" sheetId="5" r:id="rId5"/>
     <sheet name="商品分类列表接口" sheetId="7" r:id="rId6"/>
     <sheet name="商品分类排序接口" sheetId="8" r:id="rId7"/>
+    <sheet name="商品分类静态化接口" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="69">
   <si>
     <t>序号</t>
   </si>
@@ -323,6 +324,10 @@
   </si>
   <si>
     <t>商品分类排序接口</t>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/product_type_edit/v1/staticStoreCatalogPage</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -602,7 +607,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +732,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,186 +1120,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1297,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1390,37 +1407,37 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1437,7 +1454,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="52"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1469,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="29" t="s">
         <v>30</v>
       </c>
@@ -1504,18 +1521,18 @@
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="34" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1547,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="34" t="s">
         <v>43</v>
       </c>
@@ -1545,7 +1562,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="35" t="s">
         <v>45</v>
       </c>
@@ -1560,16 +1577,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="29" t="s">
         <v>35</v>
       </c>
@@ -1584,7 +1601,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
@@ -1599,7 +1616,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="29" t="s">
         <v>37</v>
       </c>
@@ -1614,7 +1631,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1629,7 +1646,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="52"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
@@ -1644,7 +1661,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="53"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="30" t="s">
         <v>32</v>
       </c>
@@ -1795,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -1813,37 +1830,37 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1860,7 +1877,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
@@ -1942,18 +1959,18 @@
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
@@ -1968,7 +1985,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5">
-      <c r="A13" s="53"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="34" t="s">
         <v>43</v>
       </c>
@@ -1997,12 +2014,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="B16" s="29" t="s">
@@ -2229,37 +2246,37 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2276,7 +2293,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
@@ -2313,26 +2330,26 @@
     </row>
     <row r="9" spans="1:5" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
     </row>
     <row r="10" spans="1:5" s="19" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="34" t="s">
         <v>41</v>
       </c>
@@ -2347,7 +2364,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="53"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="34" t="s">
         <v>43</v>
       </c>
@@ -2527,34 +2544,34 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
@@ -2611,18 +2628,18 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="34" t="s">
         <v>41</v>
       </c>
@@ -2637,7 +2654,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="34" t="s">
         <v>43</v>
       </c>
@@ -2652,7 +2669,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="35" t="s">
         <v>45</v>
       </c>
@@ -2667,20 +2684,20 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="52"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="29" t="s">
         <v>35</v>
       </c>
@@ -3041,34 +3058,34 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="43" t="s">
@@ -3125,18 +3142,18 @@
       <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="34" t="s">
         <v>41</v>
       </c>
@@ -3151,7 +3168,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="34" t="s">
         <v>43</v>
       </c>
@@ -3166,7 +3183,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="35" t="s">
         <v>45</v>
       </c>
@@ -3181,20 +3198,20 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="52"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="53"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="29" t="s">
         <v>35</v>
       </c>
@@ -3291,6 +3308,415 @@
       <c r="E20" s="32" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="12"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" ht="21" customHeight="1">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="12"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1">
+      <c r="A7" s="48"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A8" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="56"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="56"/>
+      <c r="B13" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="57"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="29"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="29"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="29"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="30"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="2:5" ht="25.5" customHeight="1">
+      <c r="B20" s="30"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="12"/>
